--- a/Supplier List Done by Du.xlsx
+++ b/Supplier List Done by Du.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. SUPER Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPER-Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="498">
   <si>
     <t>Origin</t>
   </si>
@@ -1735,12 +1735,21 @@
     <t>duong.nguyen@tywire.vn
 thanh@tywire.vn</t>
   </si>
+  <si>
+    <t>AMBICA</t>
+  </si>
+  <si>
+    <t>princeg@ambicasteels.com</t>
+  </si>
+  <si>
+    <t> www.ambicasteels.com </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,6 +1794,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2168,7 +2182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,35 +2351,134 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2373,33 +2486,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2442,99 +2549,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2843,13 +2859,13 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
@@ -2861,8 +2877,8 @@
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2882,78 +2898,78 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="2:7" ht="90" customHeight="1">
+      <c r="B3" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="121" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="111" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="88"/>
-      <c r="C4" s="91"/>
+    <row r="4" spans="2:7" ht="30">
+      <c r="B4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="88"/>
-      <c r="C5" s="91"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="112"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="119"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="81"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="88"/>
-      <c r="C6" s="91"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="112"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="119"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="88"/>
-      <c r="C7" s="91"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="112"/>
+    </row>
+    <row r="7" spans="2:7" ht="21" customHeight="1">
+      <c r="B7" s="119"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="91"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="119"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="81"/>
-    </row>
-    <row r="9" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
-      <c r="C9" s="92"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="112"/>
+    </row>
+    <row r="9" spans="2:7" ht="45.75" thickBot="1">
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="82"/>
-    </row>
-    <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="117"/>
+      <c r="F9" s="113"/>
+    </row>
+    <row r="10" spans="2:7" ht="30.75" thickBot="1">
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2970,352 +2986,352 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+    <row r="11" spans="2:7" ht="45" customHeight="1">
+      <c r="B11" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="105" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="69"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="100"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="83"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="69"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="114"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="100"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="83"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="69"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="114"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="100"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
-      <c r="C15" s="69"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="114"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B15" s="100"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
+      <c r="E15" s="102"/>
+      <c r="F15" s="114"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="105" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="69"/>
+    <row r="17" spans="2:7">
+      <c r="B17" s="100"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="78"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="69"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="100"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="78"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="73"/>
-      <c r="C19" s="70"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="106"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B19" s="108"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="79"/>
-    </row>
-    <row r="20" spans="2:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+    </row>
+    <row r="20" spans="2:7" ht="77.25" customHeight="1">
+      <c r="B20" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="105" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
-      <c r="C21" s="69"/>
+    <row r="21" spans="2:7">
+      <c r="B21" s="100"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="78"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="69"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="100"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="78"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="69"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="106"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B23" s="100"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="78"/>
-    </row>
-    <row r="24" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="E23" s="104"/>
+      <c r="F23" s="106"/>
+    </row>
+    <row r="24" spans="2:7" ht="45" customHeight="1">
+      <c r="B24" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="77" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="81" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="C25" s="65"/>
+    <row r="25" spans="2:7">
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="67"/>
-      <c r="C26" s="65"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="83"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="79"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="59"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="65"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="83"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="79"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="65"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="83"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B28" s="79"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="92"/>
+      <c r="F28" s="83"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="81" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="96"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="92"/>
+      <c r="F30" s="83"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1">
       <c r="B31" s="97"/>
-      <c r="C31" s="94"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="98"/>
-      <c r="F31" s="93"/>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="s">
+      <c r="F31" s="84"/>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1">
+      <c r="B32" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="77" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="67"/>
-      <c r="C33" s="65"/>
+    <row r="33" spans="2:6">
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="67"/>
-      <c r="C34" s="65"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="83"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="79"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="67"/>
-      <c r="C35" s="65"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="83"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="79"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="67"/>
-      <c r="C36" s="65"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="83"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B36" s="79"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
+      <c r="E36" s="92"/>
+      <c r="F36" s="83"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="81" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="67"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="59"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="67"/>
-      <c r="C39" s="65"/>
+    <row r="38" spans="2:6">
+      <c r="B38" s="79"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="83"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="79"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="67"/>
-      <c r="C40" s="65"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="83"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="79"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="83"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="79"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="59"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="65"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="83"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B42" s="79"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="2:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="92"/>
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" spans="2:6" ht="150.75" thickBot="1">
       <c r="B43" s="21" t="s">
         <v>59</v>
       </c>
@@ -3332,159 +3348,159 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+    <row r="44" spans="2:6" ht="45">
+      <c r="B44" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="77" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="67"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="99" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="79"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="67"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="67"/>
-      <c r="C47" s="65"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="83"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="79"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="83"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="79"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="67"/>
-      <c r="C48" s="65"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="83"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="79"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="67"/>
-      <c r="C49" s="65"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="83"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="79"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67"/>
-      <c r="C50" s="65"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="83"/>
+    </row>
+    <row r="50" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B50" s="79"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="83"/>
+    </row>
+    <row r="51" spans="2:7" ht="30" customHeight="1">
+      <c r="B51" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="77" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="58" t="s">
+      <c r="F51" s="81" t="s">
         <v>80</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="67"/>
-      <c r="C52" s="65"/>
+    <row r="52" spans="2:7">
+      <c r="B52" s="79"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="101"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="67"/>
-      <c r="C53" s="65"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="82"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="79"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="101"/>
-    </row>
-    <row r="54" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="67"/>
-      <c r="C54" s="65"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="82"/>
+    </row>
+    <row r="54" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B54" s="79"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="101"/>
-    </row>
-    <row r="55" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="67"/>
-      <c r="C55" s="65"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="82"/>
+    </row>
+    <row r="55" spans="2:7" ht="30">
+      <c r="B55" s="79"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="101"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="67"/>
-      <c r="C56" s="65"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="82"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="79"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="101"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="67"/>
-      <c r="C57" s="65"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="82"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="79"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="101"/>
-    </row>
-    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="65"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="82"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B58" s="79"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="101"/>
-    </row>
-    <row r="59" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="73"/>
+      <c r="F58" s="82"/>
+    </row>
+    <row r="59" spans="2:7" ht="30" customHeight="1" thickBot="1">
       <c r="B59" s="21" t="s">
         <v>86</v>
       </c>
@@ -3501,7 +3517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" ht="48" customHeight="1" thickBot="1">
       <c r="B60" s="27" t="s">
         <v>89</v>
       </c>
@@ -3516,31 +3532,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="66" t="s">
+    <row r="61" spans="2:7">
+      <c r="B61" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="67"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="59"/>
-    </row>
-    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B62" s="79"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="83"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1">
       <c r="B63" s="21" t="s">
         <v>96</v>
       </c>
@@ -3557,7 +3573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="30.75" thickBot="1">
       <c r="B64" s="13" t="s">
         <v>100</v>
       </c>
@@ -3574,67 +3590,67 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="66" t="s">
+    <row r="65" spans="2:6">
+      <c r="B65" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="67"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="59"/>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="93"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="66" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" s="79"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="83"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B67" s="89"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="84"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="58" t="s">
+      <c r="E68" s="77"/>
+      <c r="F68" s="81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="67"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="101"/>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="103"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="104"/>
-    </row>
-    <row r="71" spans="2:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6">
+      <c r="B69" s="79"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="82"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B70" s="89"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="90"/>
+    </row>
+    <row r="71" spans="2:6" ht="60" customHeight="1" thickBot="1">
       <c r="B71" s="21" t="s">
         <v>114</v>
       </c>
@@ -3651,7 +3667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="30" customHeight="1" thickBot="1">
       <c r="B72" s="21" t="s">
         <v>117</v>
       </c>
@@ -3668,75 +3684,75 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="66" t="s">
+    <row r="73" spans="2:6">
+      <c r="B73" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="105" t="s">
+      <c r="D73" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="107" t="s">
+      <c r="E73" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="58" t="s">
+      <c r="F73" s="81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="67"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="106"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="101"/>
-    </row>
-    <row r="75" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="108" t="s">
+    <row r="74" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B74" s="79"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="82"/>
+    </row>
+    <row r="75" spans="2:6" ht="33.75" customHeight="1">
+      <c r="B75" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="111" t="s">
+      <c r="C75" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="114" t="s">
+      <c r="E75" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="F75" s="117" t="s">
+      <c r="F75" s="67" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
-      <c r="C76" s="112"/>
+    <row r="76" spans="2:6">
+      <c r="B76" s="59"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="118"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="109"/>
-      <c r="C77" s="112"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="68"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="59"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="118"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="110"/>
-      <c r="C78" s="113"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="68"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B78" s="60"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E78" s="116"/>
-      <c r="F78" s="119"/>
-    </row>
-    <row r="79" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="66"/>
+      <c r="F78" s="69"/>
+    </row>
+    <row r="79" spans="2:6" ht="30" customHeight="1" thickBot="1">
       <c r="B79" s="21" t="s">
         <v>130</v>
       </c>
@@ -3753,7 +3769,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="60.75" thickBot="1">
       <c r="B80" s="27" t="s">
         <v>134</v>
       </c>
@@ -3770,7 +3786,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="30" customHeight="1" thickBot="1">
       <c r="B81" s="21" t="s">
         <v>137</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="75" customHeight="1">
       <c r="B82" s="31" t="s">
         <v>146</v>
       </c>
@@ -3804,7 +3820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="51.75" customHeight="1">
       <c r="B83" s="33" t="s">
         <v>154</v>
       </c>
@@ -3821,7 +3837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" ht="30">
       <c r="B84" s="33" t="s">
         <v>148</v>
       </c>
@@ -3838,7 +3854,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="241.5" customHeight="1">
       <c r="B85" s="37" t="s">
         <v>453</v>
       </c>
@@ -3853,7 +3869,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="30">
       <c r="B86" s="40" t="s">
         <v>451</v>
       </c>
@@ -3866,7 +3882,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="45" customHeight="1">
       <c r="B87" s="33" t="s">
         <v>159</v>
       </c>
@@ -3883,59 +3899,59 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="120" t="s">
+    <row r="88" spans="2:6">
+      <c r="B88" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="113" t="s">
+      <c r="C88" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="106" t="s">
+      <c r="D88" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="115" t="s">
+      <c r="E88" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="115" t="s">
+      <c r="F88" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="121"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="112"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="121"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="112"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="121"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="115"/>
-      <c r="F91" s="112"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="121"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="106"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="112"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="122"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="115"/>
-      <c r="F93" s="112"/>
-    </row>
-    <row r="94" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
+      <c r="B89" s="71"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="62"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="71"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="62"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="71"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="62"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="71"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="62"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="72"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="62"/>
+    </row>
+    <row r="94" spans="2:6" ht="45" customHeight="1">
       <c r="B94" s="33" t="s">
         <v>166</v>
       </c>
@@ -3952,7 +3968,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="90">
       <c r="B95" s="33" t="s">
         <v>170</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="30">
       <c r="B96" s="37" t="s">
         <v>173</v>
       </c>
@@ -3986,7 +4002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" ht="140.25" customHeight="1">
       <c r="B97" s="37" t="s">
         <v>175</v>
       </c>
@@ -4001,7 +4017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" ht="409.5" customHeight="1">
       <c r="B98" s="37" t="s">
         <v>178</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" ht="105">
       <c r="B99" s="37" t="s">
         <v>181</v>
       </c>
@@ -4029,7 +4045,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="261.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" ht="261.75" customHeight="1">
       <c r="B100" s="37" t="s">
         <v>184</v>
       </c>
@@ -4044,7 +4060,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" ht="46.5" customHeight="1">
       <c r="B101" s="37" t="s">
         <v>186</v>
       </c>
@@ -4059,7 +4075,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="30">
       <c r="B102" s="37" t="s">
         <v>189</v>
       </c>
@@ -4074,7 +4090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" ht="41.25" customHeight="1">
       <c r="B103" s="37" t="s">
         <v>192</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" ht="69" customHeight="1">
       <c r="B104" s="37" t="s">
         <v>196</v>
       </c>
@@ -4108,7 +4124,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" ht="263.25" customHeight="1">
       <c r="B105" s="37" t="s">
         <v>197</v>
       </c>
@@ -4125,7 +4141,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" ht="50.25" customHeight="1">
       <c r="B106" s="37" t="s">
         <v>201</v>
       </c>
@@ -4142,7 +4158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" ht="99.75" customHeight="1">
       <c r="B107" s="37" t="s">
         <v>202</v>
       </c>
@@ -4159,7 +4175,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" ht="78" customHeight="1">
       <c r="B108" s="37" t="s">
         <v>205</v>
       </c>
@@ -4174,7 +4190,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" ht="30">
       <c r="B109" s="40" t="s">
         <v>208</v>
       </c>
@@ -4191,7 +4207,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" ht="30">
       <c r="B110" s="37" t="s">
         <v>211</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" ht="45">
       <c r="B111" s="37" t="s">
         <v>214</v>
       </c>
@@ -4225,7 +4241,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" ht="124.5" customHeight="1">
       <c r="B112" s="37" t="s">
         <v>217</v>
       </c>
@@ -4242,7 +4258,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" ht="60">
       <c r="B113" s="37" t="s">
         <v>219</v>
       </c>
@@ -4259,7 +4275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" ht="90">
       <c r="B114" s="37" t="s">
         <v>223</v>
       </c>
@@ -4274,7 +4290,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" ht="38.25" customHeight="1">
       <c r="B115" s="37" t="s">
         <v>225</v>
       </c>
@@ -4291,7 +4307,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" ht="52.5" customHeight="1">
       <c r="B116" s="37" t="s">
         <v>230</v>
       </c>
@@ -4308,7 +4324,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" ht="252" customHeight="1">
       <c r="B117" s="37" t="s">
         <v>234</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" ht="129.75" customHeight="1">
       <c r="B118" s="11" t="s">
         <v>464</v>
       </c>
@@ -4340,7 +4356,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" ht="207" customHeight="1">
       <c r="B119" s="11" t="s">
         <v>241</v>
       </c>
@@ -4357,7 +4373,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" ht="133.5" customHeight="1">
       <c r="B120" s="11" t="s">
         <v>244</v>
       </c>
@@ -4374,7 +4390,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" ht="240.75" customHeight="1">
       <c r="B121" s="11" t="s">
         <v>245</v>
       </c>
@@ -4391,7 +4407,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" ht="90">
       <c r="B122" s="11" t="s">
         <v>248</v>
       </c>
@@ -4406,7 +4422,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" ht="61.5" customHeight="1">
       <c r="B123" s="40" t="s">
         <v>250</v>
       </c>
@@ -4421,7 +4437,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" ht="105.75" customHeight="1">
       <c r="B124" s="37" t="s">
         <v>253</v>
       </c>
@@ -4438,7 +4454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" ht="154.5" customHeight="1">
       <c r="B125" s="37" t="s">
         <v>254</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" ht="39" customHeight="1">
       <c r="B126" s="37" t="s">
         <v>263</v>
       </c>
@@ -4470,7 +4486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" ht="43.5" customHeight="1">
       <c r="B127" s="37" t="s">
         <v>267</v>
       </c>
@@ -4485,7 +4501,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" ht="30">
       <c r="B128" s="40" t="s">
         <v>269</v>
       </c>
@@ -4498,7 +4514,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="45">
       <c r="B129" s="37" t="s">
         <v>272</v>
       </c>
@@ -4513,7 +4529,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="63.75" customHeight="1">
       <c r="B130" s="37" t="s">
         <v>275</v>
       </c>
@@ -4528,7 +4544,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="30">
       <c r="B131" s="37" t="s">
         <v>276</v>
       </c>
@@ -4543,7 +4559,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="96" customHeight="1">
       <c r="A132" s="9">
         <v>8</v>
       </c>
@@ -4563,7 +4579,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="162" customHeight="1">
       <c r="B133" s="37" t="s">
         <v>407</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="45">
       <c r="B134" s="37" t="s">
         <v>405</v>
       </c>
@@ -4591,7 +4607,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="33" customHeight="1">
       <c r="B135" s="37" t="s">
         <v>471</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="52.5" customHeight="1">
       <c r="B136" s="37" t="s">
         <v>403</v>
       </c>
@@ -4621,7 +4637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="77.25" customHeight="1">
       <c r="B137" s="37" t="s">
         <v>401</v>
       </c>
@@ -4634,7 +4650,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="252.75" customHeight="1">
       <c r="B138" s="37" t="s">
         <v>292</v>
       </c>
@@ -4649,7 +4665,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="48" customHeight="1">
       <c r="B139" s="40" t="s">
         <v>289</v>
       </c>
@@ -4662,7 +4678,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="69" customHeight="1">
       <c r="B140" s="40" t="s">
         <v>290</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="212.25" customHeight="1">
       <c r="B141" s="37" t="s">
         <v>398</v>
       </c>
@@ -4690,7 +4706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="42" customHeight="1">
       <c r="B142" s="37" t="s">
         <v>396</v>
       </c>
@@ -4703,7 +4719,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="21" customHeight="1">
       <c r="B143" s="37" t="s">
         <v>393</v>
       </c>
@@ -4718,7 +4734,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="48.75" customHeight="1">
       <c r="B144" s="37" t="s">
         <v>391</v>
       </c>
@@ -4733,7 +4749,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" ht="49.5" customHeight="1">
       <c r="B145" s="37" t="s">
         <v>299</v>
       </c>
@@ -4748,7 +4764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" ht="80.25" customHeight="1">
       <c r="B146" s="37" t="s">
         <v>389</v>
       </c>
@@ -4761,7 +4777,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" ht="18" customHeight="1">
       <c r="B147" s="40" t="s">
         <v>467</v>
       </c>
@@ -4772,7 +4788,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" ht="29.25" customHeight="1">
       <c r="B148" s="40" t="s">
         <v>468</v>
       </c>
@@ -4783,7 +4799,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" ht="120">
       <c r="B149" s="37" t="s">
         <v>469</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" ht="30">
       <c r="B150" s="37" t="s">
         <v>386</v>
       </c>
@@ -4811,7 +4827,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" ht="173.25" customHeight="1">
       <c r="B151" s="37" t="s">
         <v>384</v>
       </c>
@@ -4826,7 +4842,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" ht="48.75" customHeight="1">
       <c r="B152" s="37" t="s">
         <v>311</v>
       </c>
@@ -4841,7 +4857,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" ht="197.25" customHeight="1">
       <c r="B153" s="37" t="s">
         <v>379</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" ht="235.5" customHeight="1">
       <c r="B154" s="37" t="s">
         <v>381</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" ht="45">
       <c r="B155" s="37" t="s">
         <v>377</v>
       </c>
@@ -4886,7 +4902,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" ht="45">
       <c r="B156" s="37" t="s">
         <v>375</v>
       </c>
@@ -4899,7 +4915,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" ht="45">
       <c r="B157" s="37" t="s">
         <v>324</v>
       </c>
@@ -4916,7 +4932,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" ht="180.75" customHeight="1">
       <c r="B158" s="37" t="s">
         <v>327</v>
       </c>
@@ -4933,7 +4949,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" ht="30">
       <c r="B159" s="37" t="s">
         <v>372</v>
       </c>
@@ -4946,7 +4962,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" ht="30">
       <c r="B160" s="37" t="s">
         <v>370</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="75">
       <c r="B161" s="37" t="s">
         <v>333</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="30">
       <c r="B162" s="37" t="s">
         <v>336</v>
       </c>
@@ -4995,7 +5011,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="66" customHeight="1">
       <c r="B163" s="37" t="s">
         <v>341</v>
       </c>
@@ -5010,7 +5026,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="90">
       <c r="B164" s="37" t="s">
         <v>343</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="50.25" customHeight="1">
       <c r="B165" s="37" t="s">
         <v>347</v>
       </c>
@@ -5042,7 +5058,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="46.5" customHeight="1">
       <c r="B166" s="37" t="s">
         <v>349</v>
       </c>
@@ -5057,7 +5073,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="36.75" customHeight="1">
       <c r="B167" s="37" t="s">
         <v>363</v>
       </c>
@@ -5070,7 +5086,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="96.75" customHeight="1">
       <c r="B168" s="37" t="s">
         <v>353</v>
       </c>
@@ -5087,7 +5103,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="107.25" customHeight="1">
       <c r="B169" s="43" t="s">
         <v>358</v>
       </c>
@@ -5102,7 +5118,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="44" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A170" s="47"/>
       <c r="B170" s="43" t="s">
         <v>418</v>
@@ -5124,7 +5140,7 @@
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
     </row>
-    <row r="171" spans="1:16" s="38" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="38" customFormat="1" ht="36.75" customHeight="1">
       <c r="A171" s="47"/>
       <c r="B171" s="37" t="s">
         <v>421</v>
@@ -5144,7 +5160,7 @@
       <c r="O171" s="47"/>
       <c r="P171" s="47"/>
     </row>
-    <row r="172" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="152.25" customHeight="1">
       <c r="B172" s="43" t="s">
         <v>423</v>
       </c>
@@ -5159,7 +5175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="30">
       <c r="A173" s="51"/>
       <c r="B173" s="37" t="s">
         <v>472</v>
@@ -5176,7 +5192,7 @@
       </c>
       <c r="G173" s="51"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="51"/>
       <c r="B174" s="37" t="s">
         <v>479</v>
@@ -5195,7 +5211,7 @@
       </c>
       <c r="G174" s="51"/>
     </row>
-    <row r="175" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="45">
       <c r="A175" s="51"/>
       <c r="B175" s="37" t="s">
         <v>481</v>
@@ -5214,7 +5230,7 @@
       </c>
       <c r="G175" s="51"/>
     </row>
-    <row r="176" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="30">
       <c r="A176" s="44"/>
       <c r="B176" s="43" t="s">
         <v>487</v>
@@ -5229,7 +5245,7 @@
       </c>
       <c r="G176" s="44"/>
     </row>
-    <row r="177" spans="2:7" s="51" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" s="51" customFormat="1" ht="59.25" customHeight="1">
       <c r="B177" s="11" t="s">
         <v>490</v>
       </c>
@@ -5238,7 +5254,7 @@
       </c>
       <c r="D177" s="11"/>
     </row>
-    <row r="178" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" ht="30">
       <c r="B178" s="11" t="s">
         <v>492</v>
       </c>
@@ -5254,15 +5270,21 @@
       <c r="F178" s="57"/>
       <c r="G178" s="57"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="11"/>
+    <row r="179" spans="2:7" ht="45.75" customHeight="1">
+      <c r="B179" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="C179" s="57"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
+      <c r="E179" s="124" t="s">
+        <v>496</v>
+      </c>
+      <c r="F179" s="125" t="s">
+        <v>497</v>
+      </c>
       <c r="G179" s="57"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7">
       <c r="B180" s="11"/>
       <c r="C180" s="57"/>
       <c r="D180" s="11"/>
@@ -5270,7 +5292,7 @@
       <c r="F180" s="57"/>
       <c r="G180" s="57"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7">
       <c r="B181" s="11"/>
       <c r="C181" s="57"/>
       <c r="D181" s="11"/>
@@ -5278,7 +5300,7 @@
       <c r="F181" s="57"/>
       <c r="G181" s="57"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7">
       <c r="B182" s="11"/>
       <c r="C182" s="57"/>
       <c r="D182" s="11"/>
@@ -5288,39 +5310,31 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F20:F23"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D38"/>
@@ -5334,31 +5348,39 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E37:E42"/>
     <mergeCell ref="F37:F42"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="mhhong@ttube.kr"/>
@@ -5563,8 +5585,9 @@
     <hyperlink ref="E175" r:id="rId200"/>
     <hyperlink ref="E176" r:id="rId201" display="jlee@amcastle.com"/>
     <hyperlink ref="F176" r:id="rId202"/>
+    <hyperlink ref="F179" r:id="rId203" display="http://www.ambicasteels.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId203"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId204"/>
 </worksheet>
 </file>
--- a/Supplier List Done by Du.xlsx
+++ b/Supplier List Done by Du.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="502">
   <si>
     <t>Origin</t>
   </si>
@@ -1743,6 +1743,19 @@
   </si>
   <si>
     <t> www.ambicasteels.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Continental Alloy &amp; Services</t>
+  </si>
+  <si>
+    <t>www.contalloy.com</t>
+  </si>
+  <si>
+    <t>carmen.ng@contalloy.com
+chialuen@contalloy.com</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2351,6 +2364,158 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2396,161 +2561,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2862,7 +2878,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2899,75 +2915,75 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="90" customHeight="1">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="92" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="82" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30">
-      <c r="B4" s="119"/>
-      <c r="C4" s="122"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="112"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="119"/>
-      <c r="C5" s="122"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="112"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="119"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1">
-      <c r="B7" s="119"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="119"/>
-      <c r="C8" s="122"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="112"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="2:7" ht="45.75" thickBot="1">
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1">
       <c r="B10" s="13" t="s">
@@ -2987,116 +3003,116 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="45" customHeight="1">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="79" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="100"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="100"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="114"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="114"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="100"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="106"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="80"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="100"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="106"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B19" s="108"/>
-      <c r="C19" s="107"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="2:7" ht="77.25" customHeight="1">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="79" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -3104,232 +3120,232 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="100"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="106"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="80"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="106"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="80"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="106"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="2:7" ht="45" customHeight="1">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="83"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="79"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="83"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="79"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="83"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B28" s="79"/>
-      <c r="C28" s="73"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="83"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="96"/>
-      <c r="C30" s="73"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="83"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="88"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="95"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1">
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="79"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="83"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="79"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="83"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="79"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="92"/>
-      <c r="F35" s="83"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B36" s="79"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="83"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="79"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="83"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="79"/>
-      <c r="C39" s="73"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="83"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="79"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="83"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="79"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="83"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="61"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B42" s="79"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="83"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="2:6" ht="150.75" thickBot="1">
       <c r="B43" s="21" t="s">
@@ -3349,88 +3365,88 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="45">
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="E44" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="60" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="79"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="93" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="83"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="61"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="79"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="83"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="61"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="79"/>
-      <c r="C47" s="73"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="83"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="61"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="79"/>
-      <c r="C48" s="73"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="83"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="61"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="79"/>
-      <c r="C49" s="73"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="83"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B50" s="79"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="83"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="60" t="s">
         <v>80</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3438,67 +3454,67 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="79"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="82"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="103"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="79"/>
-      <c r="C53" s="73"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="82"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="103"/>
     </row>
     <row r="54" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B54" s="79"/>
-      <c r="C54" s="73"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="82"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="103"/>
     </row>
     <row r="55" spans="2:7" ht="30">
-      <c r="B55" s="79"/>
-      <c r="C55" s="73"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="82"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="103"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="79"/>
-      <c r="C56" s="73"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="82"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="103"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="79"/>
-      <c r="C57" s="73"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="82"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="103"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B58" s="79"/>
-      <c r="C58" s="73"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="82"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="103"/>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" thickBot="1">
       <c r="B59" s="21" t="s">
@@ -3533,28 +3549,28 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="91" t="s">
+      <c r="E61" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="60" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B62" s="79"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="83"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="61"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1">
       <c r="B63" s="21" t="s">
@@ -3591,64 +3607,64 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="91" t="s">
+      <c r="E65" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="81" t="s">
+      <c r="F65" s="60" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="79"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="83"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="61"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B67" s="89"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="84"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="95"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="81" t="s">
+      <c r="E68" s="66"/>
+      <c r="F68" s="60" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="79"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="82"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="103"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B70" s="89"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="90"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="106"/>
     </row>
     <row r="71" spans="2:6" ht="60" customHeight="1" thickBot="1">
       <c r="B71" s="21" t="s">
@@ -3685,72 +3701,72 @@
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="80" t="s">
+      <c r="E73" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="81" t="s">
+      <c r="F73" s="60" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B74" s="79"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="82"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="103"/>
     </row>
     <row r="75" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="119" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="59"/>
-      <c r="C76" s="62"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="114"/>
       <c r="D76" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E76" s="65"/>
-      <c r="F76" s="68"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="120"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="59"/>
-      <c r="C77" s="62"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="114"/>
       <c r="D77" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="65"/>
-      <c r="F77" s="68"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="120"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B78" s="60"/>
-      <c r="C78" s="63"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="115"/>
       <c r="D78" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="69"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="121"/>
     </row>
     <row r="79" spans="2:6" ht="30" customHeight="1" thickBot="1">
       <c r="B79" s="21" t="s">
@@ -3900,56 +3916,56 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="75" t="s">
+      <c r="D88" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="65" t="s">
+      <c r="E88" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="65" t="s">
+      <c r="F88" s="117" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="71"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="62"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="114"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="71"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="62"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="114"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="71"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="62"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="71"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="62"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="114"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="72"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="62"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="114"/>
     </row>
     <row r="94" spans="2:6" ht="45" customHeight="1">
       <c r="B94" s="33" t="s">
@@ -5276,20 +5292,28 @@
       </c>
       <c r="C179" s="57"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="124" t="s">
+      <c r="E179" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="F179" s="125" t="s">
+      <c r="F179" s="59" t="s">
         <v>497</v>
       </c>
       <c r="G179" s="57"/>
     </row>
-    <row r="180" spans="2:7">
-      <c r="B180" s="11"/>
-      <c r="C180" s="57"/>
+    <row r="180" spans="2:7" ht="30">
+      <c r="B180" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C180" s="57" t="s">
+        <v>498</v>
+      </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
+      <c r="E180" s="126" t="s">
+        <v>501</v>
+      </c>
+      <c r="F180" s="59" t="s">
+        <v>500</v>
+      </c>
       <c r="G180" s="57"/>
     </row>
     <row r="181" spans="2:7">
@@ -5310,31 +5334,39 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D38"/>
@@ -5348,39 +5380,31 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E37:E42"/>
     <mergeCell ref="F37:F42"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="mhhong@ttube.kr"/>
@@ -5586,8 +5610,9 @@
     <hyperlink ref="E176" r:id="rId201" display="jlee@amcastle.com"/>
     <hyperlink ref="F176" r:id="rId202"/>
     <hyperlink ref="F179" r:id="rId203" display="http://www.ambicasteels.com/"/>
+    <hyperlink ref="F180" r:id="rId204" display="http://www.contalloy.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId204"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId205"/>
 </worksheet>
 </file>
--- a/Supplier List Done by Du.xlsx
+++ b/Supplier List Done by Du.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="507">
   <si>
     <t>Origin</t>
   </si>
@@ -1756,6 +1756,22 @@
   <si>
     <t>carmen.ng@contalloy.com
 chialuen@contalloy.com</t>
+  </si>
+  <si>
+    <t>Hunan Great Steel Pipe</t>
+  </si>
+  <si>
+    <t>vicky@hunantube.com</t>
+  </si>
+  <si>
+    <t>Sunjin Metalex</t>
+  </si>
+  <si>
+    <t>304, 316</t>
+  </si>
+  <si>
+    <t>service@osakasteel.com (Ms. Emma Lee)
+sjmvina@osakasteel.com (Mr. Trường)</t>
   </si>
 </sst>
 </file>
@@ -2366,35 +2382,137 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2402,33 +2520,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2470,102 +2582,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2875,10 +2891,10 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2915,75 +2931,75 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="90" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="124" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="114" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30">
-      <c r="B4" s="90"/>
-      <c r="C4" s="93"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="83"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="90"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="115"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="90"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="115"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1">
-      <c r="B7" s="90"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="115"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="90"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="2:7" ht="45.75" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="84"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="116"/>
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1">
       <c r="B10" s="13" t="s">
@@ -3003,116 +3019,116 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="45" customHeight="1">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="104" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="108" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="85"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="85"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="117"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="117"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="104" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="74"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="80"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="109"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="74"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="80"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="109"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="81"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="2:7" ht="77.25" customHeight="1">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="104" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="108" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -3120,232 +3136,232 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="80"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="109"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="80"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="109"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="80"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="2:7" ht="45" customHeight="1">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="84" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="69"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="69"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="69"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="86"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="84" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="98"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B31" s="99"/>
-      <c r="C31" s="96"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="95"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="87"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="80" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="84" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="69"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="61"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="86"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="69"/>
-      <c r="C34" s="67"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="61"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="86"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="69"/>
-      <c r="C35" s="67"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="61"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="86"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B36" s="69"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="61"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="86"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="69"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="61"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="86"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="69"/>
-      <c r="C39" s="67"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="86"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="69"/>
-      <c r="C40" s="67"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="86"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="69"/>
-      <c r="C41" s="67"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="61"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="86"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B42" s="69"/>
-      <c r="C42" s="67"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="61"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="86"/>
     </row>
     <row r="43" spans="2:6" ht="150.75" thickBot="1">
       <c r="B43" s="21" t="s">
@@ -3365,88 +3381,88 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="45">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="80" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="84" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="69"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="101" t="s">
+      <c r="B45" s="82"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="61"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="86"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="69"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="61"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="86"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="69"/>
-      <c r="C47" s="67"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="61"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="86"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="69"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="61"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="86"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="69"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="61"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="86"/>
     </row>
     <row r="50" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B50" s="69"/>
-      <c r="C50" s="67"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="61"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="86"/>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="80" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="84" t="s">
         <v>80</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3454,67 +3470,67 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="69"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="103"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="69"/>
-      <c r="C53" s="67"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="103"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B54" s="69"/>
-      <c r="C54" s="67"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="67"/>
-      <c r="F54" s="103"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="2:7" ht="30">
-      <c r="B55" s="69"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="67"/>
-      <c r="F55" s="103"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="69"/>
-      <c r="C56" s="67"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="67"/>
-      <c r="F56" s="103"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="85"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="69"/>
-      <c r="C57" s="67"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="103"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B58" s="69"/>
-      <c r="C58" s="67"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="103"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="85"/>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" thickBot="1">
       <c r="B59" s="21" t="s">
@@ -3549,28 +3565,28 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="62" t="s">
+      <c r="E61" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B62" s="69"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="61"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="86"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1">
       <c r="B63" s="21" t="s">
@@ -3607,64 +3623,64 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="62" t="s">
+      <c r="E65" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="69"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="61"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="86"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B67" s="105"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="95"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="87"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="D68" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="60" t="s">
+      <c r="E68" s="80"/>
+      <c r="F68" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="69"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="103"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="85"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B70" s="105"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="106"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="93"/>
     </row>
     <row r="71" spans="2:6" ht="60" customHeight="1" thickBot="1">
       <c r="B71" s="21" t="s">
@@ -3701,72 +3717,72 @@
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="107" t="s">
+      <c r="D73" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="109" t="s">
+      <c r="E73" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="84" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B74" s="69"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="108"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="103"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="85"/>
     </row>
     <row r="75" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="113" t="s">
+      <c r="C75" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="116" t="s">
+      <c r="E75" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="F75" s="119" t="s">
+      <c r="F75" s="70" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="111"/>
-      <c r="C76" s="114"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E76" s="117"/>
-      <c r="F76" s="120"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="71"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="111"/>
-      <c r="C77" s="114"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="117"/>
-      <c r="F77" s="120"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="71"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B78" s="112"/>
-      <c r="C78" s="115"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E78" s="118"/>
-      <c r="F78" s="121"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="72"/>
     </row>
     <row r="79" spans="2:6" ht="30" customHeight="1" thickBot="1">
       <c r="B79" s="21" t="s">
@@ -3916,56 +3932,56 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="122" t="s">
+      <c r="B88" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="115" t="s">
+      <c r="C88" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="108" t="s">
+      <c r="D88" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="117" t="s">
+      <c r="E88" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="117" t="s">
+      <c r="F88" s="68" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="123"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="114"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="123"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="114"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="65"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="123"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="114"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="123"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="114"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="65"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="124"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="114"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="65"/>
     </row>
     <row r="94" spans="2:6" ht="45" customHeight="1">
       <c r="B94" s="33" t="s">
@@ -5308,7 +5324,7 @@
         <v>498</v>
       </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="126" t="s">
+      <c r="E180" s="60" t="s">
         <v>501</v>
       </c>
       <c r="F180" s="59" t="s">
@@ -5316,57 +5332,63 @@
       </c>
       <c r="G180" s="57"/>
     </row>
-    <row r="181" spans="2:7">
-      <c r="B181" s="11"/>
-      <c r="C181" s="57"/>
+    <row r="181" spans="2:7" ht="30">
+      <c r="B181" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C181" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="57"/>
+      <c r="E181" s="50" t="s">
+        <v>503</v>
+      </c>
       <c r="F181" s="57"/>
       <c r="G181" s="57"/>
     </row>
-    <row r="182" spans="2:7">
-      <c r="B182" s="11"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="57"/>
+    <row r="182" spans="2:7" ht="51" customHeight="1">
+      <c r="B182" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C182" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>506</v>
+      </c>
       <c r="F182" s="57"/>
       <c r="G182" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F20:F23"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D38"/>
@@ -5380,31 +5402,39 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E37:E42"/>
     <mergeCell ref="F37:F42"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="mhhong@ttube.kr"/>
@@ -5611,8 +5641,9 @@
     <hyperlink ref="F176" r:id="rId202"/>
     <hyperlink ref="F179" r:id="rId203" display="http://www.ambicasteels.com/"/>
     <hyperlink ref="F180" r:id="rId204" display="http://www.contalloy.com/"/>
+    <hyperlink ref="E181" r:id="rId205"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId205"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
 </worksheet>
 </file>